--- a/biology/Botanique/Moronobea_coccinea/Moronobea_coccinea.xlsx
+++ b/biology/Botanique/Moronobea_coccinea/Moronobea_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manil montagne
 Moronobea coccinea, appelé manil montagne en Guyane, est une espèce de plantes à fleurs de la famille des Clusiaceae.
-C'est un arbre commun en forêt primaire mais ne présente pas des densités élevées ; elle peut atteindre 30 m de haut et 50 cm de diamètre[2]. Les feuilles sont oblongues-lancéolées de 5 à 9 cm de long par 2 à 3 cm de large avec un acumen de 0,5-1 cm[3].
-Son fruit est une drupe de 4 à 5 cm dispersée par les rongeurs[2].
+C'est un arbre commun en forêt primaire mais ne présente pas des densités élevées ; elle peut atteindre 30 m de haut et 50 cm de diamètre. Les feuilles sont oblongues-lancéolées de 5 à 9 cm de long par 2 à 3 cm de large avec un acumen de 0,5-1 cm.
+Son fruit est une drupe de 4 à 5 cm dispersée par les rongeurs.
 </t>
         </is>
       </c>
